--- a/results/Preliminaries-Iceland.xlsx
+++ b/results/Preliminaries-Iceland.xlsx
@@ -59,49 +59,49 @@
     <t>2017</t>
   </si>
   <si>
-    <t>IP/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP </t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP </t>
-  </si>
-  <si>
-    <t>SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF </t>
-  </si>
-  <si>
-    <t>P -</t>
-  </si>
-  <si>
-    <t>VID</t>
-  </si>
-  <si>
-    <t>M -</t>
-  </si>
-  <si>
-    <t>RGP</t>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>LP - Liberal Party (Frjálslyndi flokkurinn, LP)</t>
+  </si>
+  <si>
+    <t>SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)</t>
+  </si>
+  <si>
+    <t>RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
   </si>
   <si>
     <t>Key</t>
@@ -137,1192 +137,1192 @@
     <t>Key_2</t>
   </si>
   <si>
-    <t xml:space="preserve">IP/+PA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PP </t>
-  </si>
-  <si>
-    <t>IP/+SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PP </t>
-  </si>
-  <si>
-    <t>PA +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +WA </t>
-  </si>
-  <si>
-    <t>PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PP </t>
-  </si>
-  <si>
-    <t>IP/+PA +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +WA </t>
-  </si>
-  <si>
-    <t>IP/+PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+SDP+WA </t>
-  </si>
-  <si>
-    <t>PA +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP +SDP+WA </t>
-  </si>
-  <si>
-    <t>IP/+PA +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM +PP </t>
-  </si>
-  <si>
-    <t>PM +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM +PP </t>
-  </si>
-  <si>
-    <t>IP/+PM +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM +PP </t>
-  </si>
-  <si>
-    <t>PA +PM +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM +WA </t>
-  </si>
-  <si>
-    <t>PM +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM +PP </t>
-  </si>
-  <si>
-    <t>IP/+PA +PM +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM +WA </t>
-  </si>
-  <si>
-    <t>IP/+PM +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM +SDP+WA </t>
-  </si>
-  <si>
-    <t>PA +PM +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PM +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t>IP/+PA +PM +PP +SDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM +PP +WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PM +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA +PM +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+PA +PM +PP +SDP+WA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LP </t>
-  </si>
-  <si>
-    <t>IP/+SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +LP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +PP </t>
-  </si>
-  <si>
-    <t>LG +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LP +PP </t>
-  </si>
-  <si>
-    <t>LP +SDA</t>
-  </si>
-  <si>
-    <t>PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +LP </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +PP </t>
-  </si>
-  <si>
-    <t>IP/+LG +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LP +PP </t>
-  </si>
-  <si>
-    <t>IP/+LP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +LP +PP </t>
-  </si>
-  <si>
-    <t>LG +LP +SDA</t>
-  </si>
-  <si>
-    <t>LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>LP +PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +LP +PP </t>
-  </si>
-  <si>
-    <t>IP/+LG +LP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LP +PP +SDA</t>
-  </si>
-  <si>
-    <t>LG +LP +PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +LP +PP +SDA</t>
-  </si>
-  <si>
-    <t>CM +IP/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +PP </t>
-  </si>
-  <si>
-    <t>CM +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +IP/+LG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +IP/+PP </t>
-  </si>
-  <si>
-    <t>CM +IP/+SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +LG +PP </t>
-  </si>
-  <si>
-    <t>CM +LG +SDA</t>
-  </si>
-  <si>
-    <t>CM +PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM +IP/+LG +PP </t>
-  </si>
-  <si>
-    <t>CM +IP/+LG +SDA</t>
-  </si>
-  <si>
-    <t>CM +IP/+PP +SDA</t>
-  </si>
-  <si>
-    <t>CM +LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>CM +IP/+LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +LG </t>
-  </si>
-  <si>
-    <t>BF +P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +PP </t>
-  </si>
-  <si>
-    <t>BF +SDA</t>
-  </si>
-  <si>
-    <t>IP/+P -</t>
-  </si>
-  <si>
-    <t>LG +P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P -+PP </t>
-  </si>
-  <si>
-    <t>P -+SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +IP/+LG </t>
-  </si>
-  <si>
-    <t>BF +IP/+P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +IP/+PP </t>
-  </si>
-  <si>
-    <t>BF +IP/+SDA</t>
-  </si>
-  <si>
-    <t>BF +LG +P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +LG +PP </t>
-  </si>
-  <si>
-    <t>BF +LG +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +P -+PP </t>
-  </si>
-  <si>
-    <t>BF +P -+SDA</t>
-  </si>
-  <si>
-    <t>BF +PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+P -+PP </t>
-  </si>
-  <si>
-    <t>IP/+P -+SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +P -+PP </t>
-  </si>
-  <si>
-    <t>LG +P -+SDA</t>
-  </si>
-  <si>
-    <t>P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +IP/+LG +PP </t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +IP/+P -+PP </t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/+PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +LG +P -+PP </t>
-  </si>
-  <si>
-    <t>BF +LG +P -+SDA</t>
-  </si>
-  <si>
-    <t>BF +LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +P -+PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +P -+PP </t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+SDA</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +SDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BF +IP/+LG +P -+PP </t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +LG +P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>BF +VID</t>
-  </si>
-  <si>
-    <t>IP/+VID</t>
-  </si>
-  <si>
-    <t>LG +VID</t>
-  </si>
-  <si>
-    <t>P -+VID</t>
-  </si>
-  <si>
-    <t>PP +VID</t>
-  </si>
-  <si>
-    <t>SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +VID</t>
-  </si>
-  <si>
-    <t>BF +P -+VID</t>
-  </si>
-  <si>
-    <t>BF +PP +VID</t>
-  </si>
-  <si>
-    <t>BF +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+VID</t>
-  </si>
-  <si>
-    <t>IP/+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+VID</t>
-  </si>
-  <si>
-    <t>LG +PP +VID</t>
-  </si>
-  <si>
-    <t>LG +SDA+VID</t>
-  </si>
-  <si>
-    <t>P -+PP +VID</t>
-  </si>
-  <si>
-    <t>P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+PP +VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +P -+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +PP +VID</t>
-  </si>
-  <si>
-    <t>BF +LG +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +P -+PP +VID</t>
-  </si>
-  <si>
-    <t>BF +P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +VID</t>
-  </si>
-  <si>
-    <t>LG +P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +PP +VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +P -+PP +VID</t>
-  </si>
-  <si>
-    <t>BF +LG +P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+PP +VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +LG +P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>BF +IP/+LG +P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -</t>
-  </si>
-  <si>
-    <t>IP/+RGP</t>
-  </si>
-  <si>
-    <t>LG +M -</t>
-  </si>
-  <si>
-    <t>LG +RGP</t>
-  </si>
-  <si>
-    <t>M -+P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+PP </t>
-  </si>
-  <si>
-    <t>M -+RGP</t>
-  </si>
-  <si>
-    <t>M -+SDA</t>
-  </si>
-  <si>
-    <t>M -+VID</t>
-  </si>
-  <si>
-    <t>P -+RGP</t>
-  </si>
-  <si>
-    <t>PP +RGP</t>
-  </si>
-  <si>
-    <t>RGP+SDA</t>
-  </si>
-  <si>
-    <t>RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -</t>
-  </si>
-  <si>
-    <t>IP/+LG +RGP</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+M -+PP </t>
-  </si>
-  <si>
-    <t>IP/+M -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+M -+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +M -+PP </t>
-  </si>
-  <si>
-    <t>LG +M -+RGP</t>
-  </si>
-  <si>
-    <t>LG +M -+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+RGP</t>
-  </si>
-  <si>
-    <t>LG +PP +RGP</t>
-  </si>
-  <si>
-    <t>LG +RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +RGP+VID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M -+P -+PP </t>
-  </si>
-  <si>
-    <t>M -+P -+RGP</t>
-  </si>
-  <si>
-    <t>M -+P -+SDA</t>
-  </si>
-  <si>
-    <t>M -+P -+VID</t>
-  </si>
-  <si>
-    <t>M -+PP +RGP</t>
-  </si>
-  <si>
-    <t>M -+PP +SDA</t>
-  </si>
-  <si>
-    <t>M -+PP +VID</t>
-  </si>
-  <si>
-    <t>M -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>M -+RGP+VID</t>
-  </si>
-  <si>
-    <t>M -+SDA+VID</t>
-  </si>
-  <si>
-    <t>P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +M -+PP </t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +RGP+VID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+M -+P -+PP </t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LG +M -+P -+PP </t>
-  </si>
-  <si>
-    <t>LG +M -+P -+RGP</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +RGP</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +VID</t>
-  </si>
-  <si>
-    <t>LG +M -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>LG +P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>M -+P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>M -+P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>M -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>M -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP/+LG +M -+P -+PP </t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +RGP</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>M -+P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +RGP+SDA</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +RGP+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+M -+P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>LG +M -+P -+PP +RGP+SDA+VID</t>
-  </si>
-  <si>
-    <t>IP/+LG +M -+P -+PP +RGP+SDA+VID</t>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PA - People's Alliance (Althydubandalag, PA)+PM - People's Movement (Thjodvaki - hreyfing f6lksins, PM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDP - Social Democrats (Althqduflokkur, SDP)+WA - Women's Alliance (Samtok um kvennalista, WA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LP - Liberal Party (Frjálslyndi flokkurinn, LP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+LP - Liberal Party (Frjálslyndi flokkurinn, LP)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>CM - Civic Movement (Borgarahreyfingin, CM)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>BF - Bright Future (Bjartar framtíðar, BF)+IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
+  </si>
+  <si>
+    <t>IP/SJFL - Independence Party (Sjálfstæðisflokkur, IP/SJFL)+LG - Left-Greens (Vinstri græn, LG)+M - The Central Party (Miðflokkurinn, M)+P - Pirates (Pirata, P)+PP - Progressive Party (Framsóknarflokkur, PP)+RGPP - Right-Green People's Party (Hægri grænna, flokks fólksins, RGPP)+SDA - Social Democratic Alliance (Samfylking, SDA)+VID - Reform (Viðreisn, VIÐ)</t>
   </si>
 </sst>
 </file>
